--- a/Proyecto/Sintactica/File.xlsx
+++ b/Proyecto/Sintactica/File.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -112,6 +112,33 @@
   </si>
   <si>
     <t>$%%$</t>
+  </si>
+  <si>
+    <t>115850520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salas </t>
+  </si>
+  <si>
+    <t>Liceo</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>CSA</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>$%(hola mundo)%%espero que estes bien &amp; sano%$</t>
   </si>
 </sst>
 </file>
@@ -286,6 +313,68 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -307,6 +396,14 @@
         <v>32</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Proyecto/Sintactica/File.xlsx
+++ b/Proyecto/Sintactica/File.xlsx
@@ -251,130 +251,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -387,24 +263,7 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Proyecto/Sintactica/File.xlsx
+++ b/Proyecto/Sintactica/File.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -109,6 +109,60 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>115850529</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Salas</t>
+  </si>
+  <si>
+    <t>Morales</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>CCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Autismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José </t>
+  </si>
+  <si>
+    <t>Liceo Rubén Odio</t>
+  </si>
+  <si>
+    <t>LRO</t>
+  </si>
+  <si>
+    <t>$%Alguna Redacción%$</t>
+  </si>
+  <si>
+    <t>115100465</t>
+  </si>
+  <si>
+    <t>Cynthia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madrigal </t>
+  </si>
+  <si>
+    <t>Quesada</t>
+  </si>
+  <si>
+    <t>Universidad Nacional</t>
+  </si>
+  <si>
+    <t>UNA</t>
+  </si>
+  <si>
+    <t>$%Alguna redacción%$</t>
   </si>
 </sst>
 </file>
@@ -223,31 +277,31 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E2" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
@@ -271,13 +325,13 @@
         <v>1.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T2" t="n">
         <v>1.0</v>
@@ -285,31 +339,31 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E3" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="F3" t="n">
-        <v>3.0</v>
+        <v>25.0</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
@@ -333,13 +387,13 @@
         <v>1.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T3" t="n">
         <v>1.0</v>
@@ -360,7 +414,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -368,10 +422,18 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
